--- a/7_Proyectos/Proyectos_Informacion.xlsx
+++ b/7_Proyectos/Proyectos_Informacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/7_Proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D1980B0-7C0E-4C13-9B8A-B6481EA79BCD}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FD7CF1A-86CF-4EC3-86FF-80CA895E8AA8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <t>Nombre</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Trapiche Condominio</t>
-  </si>
-  <si>
-    <t>Perla 1 Condominio</t>
   </si>
   <si>
     <t>Establo Condominio</t>
@@ -301,6 +298,54 @@
   </si>
   <si>
     <t>Batsu Residencial</t>
+  </si>
+  <si>
+    <t>Perla I Condominio</t>
+  </si>
+  <si>
+    <t>Desplegar</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Caracteristicas_Ingles</t>
+  </si>
+  <si>
+    <t>Amenidades_Ingles</t>
+  </si>
+  <si>
+    <t>Descripcion_Ingles</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Lots starting at 400m2.
+Direct financing available.
+Water and electricity permits.
+Ready for construction.</t>
+  </si>
+  <si>
+    <t>24/7 private security.
+Outdoor pool.
+Ranch with grill.
+Grounds maintenance.</t>
+  </si>
+  <si>
+    <t>Distrito La Fortuna, Cantón San Carlos, Provincia Alajuela</t>
+  </si>
+  <si>
+    <t>Ubicacion</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Ecoquintas</t>
+  </si>
+  <si>
+    <t>Quintas del Norte</t>
   </si>
 </sst>
 </file>
@@ -345,13 +390,104 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -362,6 +498,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62B8880B-7A4B-4339-9030-F4EAADB99586}" name="Table1" displayName="Table1" ref="A1:AB10" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:AB10" xr:uid="{62B8880B-7A4B-4339-9030-F4EAADB99586}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{8137CA2A-AFFB-4A92-AF06-C1A73A8274E8}" name="Desplegar" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{112446EA-080A-4B8E-AB0A-2371281EA7AD}" name="Nombre" dataDxfId="26"/>
+    <tableColumn id="28" xr3:uid="{AB4F6668-29FF-4C55-B95F-F9072E8690EB}" name="Etiqueta" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{179F5419-4944-42E6-877C-67DDB32D6CC9}" name="Descripcion" dataDxfId="24"/>
+    <tableColumn id="26" xr3:uid="{AFC68876-478A-4FA1-A1DA-F4C5A6B42A6C}" name="Descripcion_Ingles" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{4F53E1B1-9362-4259-A613-2B4BFCC2201D}" name="Caracteristicas" dataDxfId="22"/>
+    <tableColumn id="24" xr3:uid="{22827437-75E6-4007-A5CC-8B1D0C994049}" name="Caracteristicas_Ingles" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{F5339A46-F3B1-413B-9D63-3F3E565A2D15}" name="Amenidades" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{F5CB45F0-AA39-4F1A-A025-2CBF57E24A39}" name="Amenidades_Ingles" dataDxfId="19"/>
+    <tableColumn id="27" xr3:uid="{B337FE74-F002-4DE9-8929-C2FED33C4DCD}" name="Ubicacion" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{4CC26599-18FC-4F05-BDA5-90BEFB604DEB}" name="Logo" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{AA8F7751-DEE2-4036-BD08-F1291AF64CA5}" name="Imagen_Principal" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{A605166E-B076-467A-AFB1-B1651A68C8EA}" name="Foto_1" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{8BA22CBA-A494-49C4-B9A8-EEC8F50F524D}" name="Foto_2" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{9E26EBCF-8246-463B-A8AE-B0CCD448F321}" name="Foto_3" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{B71B0F38-3AF9-44E0-BC3E-8801B4575218}" name="Foto_4" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{7C2966AF-D763-45D6-86F7-2E72BD9E6E71}" name="Foto_5" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{F7A35E3F-B01B-4B7F-B469-B3D72335D08A}" name="Foto_6" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{DFE8B110-D826-4EC7-A4F7-3F16632DB96D}" name="Foto_7" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{5795CD82-069F-4FD0-BB71-A7E8023F7363}" name="Foto_8" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{E8110503-6B11-4D12-B652-48F4B7A088AA}" name="Foto_9" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{5912C67C-0AA6-4EF3-9155-A825358BAE78}" name="Foto_10" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{491562C6-0F88-461E-821B-D1795CD01709}" name="Foto_11" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{999945E9-4489-4F1F-AF8E-CAB3834D5EE9}" name="Foto_12" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{C36EA1FD-0059-4EA5-AD54-B2C4FE963638}" name="Foto_13" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{F7738B5D-489E-4922-91A5-F1CADDC0D84A}" name="Foto_14" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{0592D36F-1142-47FC-91FC-FCF24767A69C}" name="Foto_15" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{E84086EC-A35F-4971-BF22-85563C412A0D}" name="Foto_16" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,389 +800,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="23.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="18.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" style="1" customWidth="1"/>
+    <col min="12" max="18" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="10" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="M10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="P10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>